--- a/Analysis parameter_history_23_02_26_17_25_Nachbearbeitung.xlsx
+++ b/Analysis parameter_history_23_02_26_17_25_Nachbearbeitung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Dropbox\Uni\UNI-Daten\Master\Masterprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF8C7D0-80FD-485F-A2FB-FF8872355A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DCB34D-74D3-4C2A-8E7D-3B40AE637364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="History" sheetId="1" r:id="rId1"/>
@@ -10084,8 +10084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B18376-9D15-4F7B-9DDA-34955610ECF9}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C44"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C44" sqref="B2:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10942,8 +10942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED61EA00-2246-4314-8737-2A6D310466A4}">
   <dimension ref="B1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView topLeftCell="I13" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
